--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F2842-4DC2-40A9-97D9-35D6B2F37B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58B6D1-4E50-4948-B39D-954A1198C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="21">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="21">
         <v>2</v>

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58B6D1-4E50-4948-B39D-954A1198C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6794E9-3420-4A7D-9864-9950817303B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -395,6 +395,14 @@
   </si>
   <si>
     <t>overall_grow</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_rate_add</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_rate_add</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -885,21 +893,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="18.625" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="2" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -928,13 +936,17 @@
         <v>79</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L1"/>
-      <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -945,8 +957,10 @@
       <c r="U1"/>
       <c r="V1"/>
       <c r="W1"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X1"/>
+      <c r="Y1"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -960,8 +974,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -972,8 +986,10 @@
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X2"/>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -987,8 +1003,8 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -999,8 +1015,10 @@
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X3"/>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1032,10 +1050,14 @@
         <v>75</v>
       </c>
       <c r="K4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -1046,8 +1068,10 @@
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
-    </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4"/>
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1063,8 +1087,8 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -1075,8 +1099,10 @@
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5"/>
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1093,11 +1119,11 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
@@ -1108,8 +1134,10 @@
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6"/>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
@@ -1130,40 +1158,46 @@
         <v>5</v>
       </c>
       <c r="I7" s="21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J7" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="21">
         <v>0.05</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1174,8 +1208,10 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1186,8 +1222,10 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1198,6 +1236,8 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6794E9-3420-4A7D-9864-9950817303B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA49513-DCB1-4A25-AD3E-2333C3CEB679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -403,6 +403,14 @@
   </si>
   <si>
     <t>event_rate_add</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_life</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支后子枝的生命值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -602,6 +610,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,7 +623,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -893,21 +901,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="18.625" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="2" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="18.625" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -918,36 +926,38 @@
         <v>69</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -959,8 +969,9 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -976,7 +987,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2"/>
+      <c r="N2" s="3"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -988,8 +999,9 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1017,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3"/>
+      <c r="N3" s="3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1017,8 +1029,9 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1056,9 +1069,11 @@
         <v>75</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1070,8 +1085,9 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1105,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5"/>
+      <c r="N5" s="4"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1101,8 +1117,9 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1129,9 @@
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1121,10 +1140,10 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
@@ -1136,68 +1155,72 @@
       <c r="W6"/>
       <c r="X6"/>
       <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="21">
+      <c r="D7" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="17">
         <v>0.05</v>
       </c>
-      <c r="E7" s="21">
+      <c r="F7" s="17">
         <v>2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="G7" s="17">
         <v>0.2</v>
       </c>
-      <c r="G7" s="21">
+      <c r="H7" s="17">
         <v>1000</v>
       </c>
-      <c r="H7" s="21">
+      <c r="I7" s="17">
         <v>5</v>
       </c>
-      <c r="I7" s="21">
+      <c r="J7" s="17">
         <v>0.3</v>
       </c>
-      <c r="J7" s="21">
+      <c r="K7" s="17">
         <v>0.1</v>
       </c>
-      <c r="K7" s="21">
+      <c r="L7" s="17">
         <v>0.05</v>
       </c>
-      <c r="L7" s="21">
+      <c r="M7" s="17">
         <v>0.05</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1210,8 +1233,9 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" s="14"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1224,8 +1248,9 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1238,6 +1263,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1299,10 +1325,10 @@
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="18"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1367,10 +1393,10 @@
       <c r="M3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="21"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA49513-DCB1-4A25-AD3E-2333C3CEB679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940BE08-E303-4FCC-8A55-3CD7FFBAA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="3435" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -623,7 +623,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -904,7 +903,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -925,7 +924,7 @@
       <c r="C1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1166,7 +1165,7 @@
         <v>0.6</v>
       </c>
       <c r="E7" s="17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="17">
         <v>2</v>
@@ -1178,16 +1177,16 @@
         <v>1000</v>
       </c>
       <c r="I7" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K7" s="17">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="L7" s="17">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="M7" s="17">
         <v>0.05</v>

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940BE08-E303-4FCC-8A55-3CD7FFBAA318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C178336-0579-4D6F-BB38-796AEC2394DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="3435" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="870" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E7" s="17">
         <v>0.1</v>
@@ -1174,10 +1174,10 @@
         <v>0.2</v>
       </c>
       <c r="H7" s="17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I7" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7" s="17">
         <v>0.2</v>
@@ -1189,7 +1189,7 @@
         <v>0.2</v>
       </c>
       <c r="M7" s="17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>74</v>

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C178336-0579-4D6F-BB38-796AEC2394DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC96BD4-BDA9-4E59-9E3F-203987A599A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="870" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="1140" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1183,13 +1183,13 @@
         <v>0.2</v>
       </c>
       <c r="K7" s="17">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L7" s="17">
         <v>0.2</v>
       </c>
       <c r="M7" s="17">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>74</v>

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC96BD4-BDA9-4E59-9E3F-203987A599A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89CF7F-5A04-4799-A119-E57F0312D961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1140" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="990" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -903,13 +903,14 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="13" width="12.625" customWidth="1"/>
+    <col min="2" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
     <col min="14" max="14" width="18.625" customWidth="1"/>
     <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
@@ -1162,10 +1163,10 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="17">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="17">
         <v>2</v>
@@ -1174,22 +1175,22 @@
         <v>0.2</v>
       </c>
       <c r="H7" s="17">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I7" s="17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="17">
         <v>0.2</v>
       </c>
       <c r="K7" s="17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="17">
         <v>0.2</v>
       </c>
       <c r="M7" s="17">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>74</v>

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89CF7F-5A04-4799-A119-E57F0312D961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC147A1E-56B1-4275-84BE-64CFFC9585E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="990" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14190" yWindow="750" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,13 +1166,13 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="17">
-        <v>0.05</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F7" s="17">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G7" s="17">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="17">
         <v>100</v>
@@ -1190,7 +1190,7 @@
         <v>0.2</v>
       </c>
       <c r="M7" s="17">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>74</v>

--- a/LubanConfig/Datas/base.xlsx
+++ b/LubanConfig/Datas/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\yIshunGit\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC147A1E-56B1-4275-84BE-64CFFC9585E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA197C4-C0D9-4F96-9B5D-3FAAC431AC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="750" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22575" yWindow="3435" windowWidth="25575" windowHeight="19890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -903,7 +903,7 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,10 +1166,10 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="17">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="17">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G7" s="17">
         <v>0.1</v>
@@ -1187,10 +1187,10 @@
         <v>0.1</v>
       </c>
       <c r="L7" s="17">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="17">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>74</v>
